--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_14.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5379741.591057925</v>
+        <v>5379741.591057926</v>
       </c>
     </row>
     <row r="11">
@@ -668,61 +668,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>84.4730545048111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,55 +905,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D6" t="n">
-        <v>87.95566939920795</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>65.23969608561859</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5.980530572125079</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,55 +1379,55 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1649,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,76 +1841,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>46.03546545923035</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1944,7 +1944,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>62.41626770229252</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.014288877659</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>57.44545255886327</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.88143347497265</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2278,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.778646031951165</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>112.9530144358237</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>130.8309467350026</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2473,76 +2473,76 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.014288877659</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>118.3250243298444</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F29" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>200.3360962888294</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,28 +3029,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3266,22 +3266,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>62.86349518004421</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>143.1689537721621</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2863297033076</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,58 +3904,58 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>82.46119763909357</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>158.2776881777392</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>97.92298462765942</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.4018176583718</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4018176583718</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>487.4018176583718</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E2" t="n">
-        <v>487.4018176583718</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>730.8505943024719</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>487.4018176583718</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4419,10 +4419,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756.2968567456824</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C6" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.17982602497898</v>
+        <v>359.7667000214245</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>185.3136707402975</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>185.3136707402975</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>26.07621573484195</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>26.07621573484195</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>26.07621573484195</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>26.07621573484195</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>253.395163045047</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y9" t="n">
-        <v>253.395163045047</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="10">
@@ -4981,7 +4981,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5154,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5297,22 +5297,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
         <v>19.28114311021272</v>
@@ -5361,10 +5361,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
         <v>19.28114311021272</v>
@@ -5704,19 +5704,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>569.2254314512335</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W20" t="n">
-        <v>325.7766548071335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X20" t="n">
-        <v>325.7766548071335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.32787816303346</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.057155510636</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="C21" t="n">
-        <v>789.604126229509</v>
+        <v>77.30685276563017</v>
       </c>
       <c r="D21" t="n">
-        <v>640.6697165682577</v>
+        <v>77.30685276563017</v>
       </c>
       <c r="E21" t="n">
-        <v>481.4322615628022</v>
+        <v>77.30685276563017</v>
       </c>
       <c r="F21" t="n">
-        <v>334.8977035896872</v>
+        <v>77.30685276563017</v>
       </c>
       <c r="G21" t="n">
-        <v>196.1668781723027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>82.79774257988207</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950733</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>964.057155510636</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>964.057155510636</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X21" t="n">
-        <v>964.057155510636</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.057155510636</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="22">
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +5999,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P23" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>956.1999372965439</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>956.1999372965439</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>956.1999372965439</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>730.8505943024718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>730.8505943024718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>730.8505943024718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>730.8505943024718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>487.4018176583718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>487.4018176583718</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.081519725614</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>588.081519725614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>439.1471100643628</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>279.9096550589073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3750970857922</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.8095319084027</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.057155510636</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.057155510636</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>964.057155510636</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W24" t="n">
-        <v>964.057155510636</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X24" t="n">
-        <v>964.057155510636</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456821</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.5167634983089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>710.5167634983089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>710.5167634983089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>710.5167634983089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0679868542089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6233,43 +6233,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M26" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O26" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424089</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.5167634983089</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>627.7355178317789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>627.7355178317789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>627.7355178317789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363992</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328711</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217535</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.057155510636</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635217</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317789</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317789</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>627.7355178317789</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>627.7355178317789</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6409,13 +6409,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6473,40 +6473,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6543,46 +6543,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.8095319084027</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.057155510636</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565421</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247994</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6655,10 +6655,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.057155510636</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>749.6274730425127</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>749.6274730425127</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984127</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543127</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6716,34 +6716,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P32" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.057155510636</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>964.057155510636</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.057155510636</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6783,43 +6783,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.8095319084027</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.8095319084027</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.057155510636</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565421</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247994</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257.2326523711824</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>82.77962309005537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>82.77962309005537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>82.77962309005537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>82.77962309005537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950733</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470251</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152824</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711824</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711824</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711824</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7129,7 +7129,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.6274730425127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>749.6274730425127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>749.6274730425127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984127</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063792</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195203</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>542.8095319084027</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.057155510636</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565421</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247994</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7360,22 +7360,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984127</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7415,46 +7415,46 @@
         <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.6274730425127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.6274730425127</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.8157010833278</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063792</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195203</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635217</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635217</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="U42" t="n">
-        <v>644.4165859591706</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="V42" t="n">
-        <v>409.2644777274278</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W42" t="n">
-        <v>165.8157010833278</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X42" t="n">
-        <v>165.8157010833278</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>165.8157010833278</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7603,16 +7603,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>453.4809361619635</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C45" t="n">
-        <v>453.4809361619635</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D45" t="n">
-        <v>304.5465265007123</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7731,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439887</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328711</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217535</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>865.1450498261315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>865.1450498261315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>865.1450498261315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>865.1450498261315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>865.1450498261315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>621.6962731820315</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>621.6962731820315</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>621.6962731820315</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="46">
@@ -7783,28 +7783,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,7 +8784,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9009,13 +9009,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902117</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0408247018198</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497677</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0408247018198</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0408247018198</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519922</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661622</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996773</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3423563661622</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996773</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,16 +11379,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2069195535495</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22556,19 +22556,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>172.5871400214005</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,10 +22607,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>138.8566050823864</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>62.97201105982765</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,25 +22674,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D6" t="n">
-        <v>59.4893961654308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,10 +22923,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22963,10 +22963,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22981,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,16 +23069,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,13 +23100,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4688029026971</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>83.41610227929</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23221,10 +23221,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,10 +23394,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>150.4326837156464</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,16 +23729,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23747,7 +23747,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23786,19 +23786,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="18">
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>126.6730335290854</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23914,7 +23914,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.6671775926096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23987,10 +23987,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>148.0596218681134</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247591</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>340.0065027013012</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>79.89806460434737</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>26.51519937644243</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24105,7 +24105,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24166,16 +24166,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,13 +24221,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.21205318259364</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>24.39050272738692</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,13 +24336,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>101.9696404144226</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,19 +24452,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>39.32005612555652</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>169.3950043896396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24810,22 +24810,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,13 +24895,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,28 +24917,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946028</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>3.633152633517255</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25154,22 +25154,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772407</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>74.48002198316642</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25369,10 +25369,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25442,13 +25442,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068913</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>14.47612668323882</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858216</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>22.29358612056512</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>9.655052377667232</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>168.8844552687429</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>8.255495472128132</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2.234849524983716</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>149.6885254558154</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,13 +26041,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.883087731</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26454,7 +26454,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
         <v>179.5324977039669</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12917.76202108071</v>
+        <v>-12917.76202108068</v>
       </c>
       <c r="C6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046709</v>
       </c>
       <c r="D6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046708</v>
       </c>
       <c r="E6" t="n">
+        <v>101479.269510467</v>
+      </c>
+      <c r="F6" t="n">
+        <v>101479.269510467</v>
+      </c>
+      <c r="G6" t="n">
+        <v>101479.269510467</v>
+      </c>
+      <c r="H6" t="n">
         <v>101479.2695104671</v>
-      </c>
-      <c r="F6" t="n">
-        <v>101479.2695104671</v>
-      </c>
-      <c r="G6" t="n">
-        <v>101479.2695104671</v>
-      </c>
-      <c r="H6" t="n">
-        <v>101479.269510467</v>
       </c>
       <c r="I6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>38419.32691136081</v>
+        <v>38419.32691136085</v>
       </c>
       <c r="K6" t="n">
         <v>101479.269510467</v>
       </c>
       <c r="L6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="M6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="N6" t="n">
         <v>101479.269510467</v>
@@ -26561,7 +26561,7 @@
         <v>101479.269510467</v>
       </c>
       <c r="P6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26805,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,7 +35504,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681934</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O21" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798015</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655595</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277494</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798015</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798015</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997385</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628807</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.014288877659</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.894799580463</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>46.78797658628807</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.014288877659</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38099,16 +38099,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
